--- a/models/ctmc/embedded/parameters.xlsx
+++ b/models/ctmc/embedded/parameters.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="Properties" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -37,12 +36,6 @@
     <t>gaussian</t>
   </si>
   <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>inverse</t>
   </si>
   <si>
@@ -62,27 +55,6 @@
   </si>
   <si>
     <t>delta_r</t>
-  </si>
-  <si>
-    <t>P=? [ !"down" U "fail_actuators" ]</t>
-  </si>
-  <si>
-    <t>P=? [ !"down" U&lt;=(12*3600) "fail_sensors" ]</t>
-  </si>
-  <si>
-    <t>R{"danger"}=? [ F "down" ]</t>
-  </si>
-  <si>
-    <t>Prob. of actuator failure</t>
-  </si>
-  <si>
-    <t>Prob. of actuator failur within time T=12 hours</t>
-  </si>
-  <si>
-    <t>Exp. time in "danger" before "down"</t>
-  </si>
-  <si>
-    <t>enabled</t>
   </si>
 </sst>
 </file>
@@ -402,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,12 +394,12 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -446,7 +418,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -465,7 +437,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -484,7 +456,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -503,7 +475,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -522,7 +494,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -536,69 +508,6 @@
         <v>0.1</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="b">
         <v>1</v>
       </c>
     </row>
